--- a/data/ml_perform.xlsx
+++ b/data/ml_perform.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3B2485-E330-4B1D-8CD6-D4A533CE5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId3"/>
-  </pivotCaches>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>mae</t>
   </si>
@@ -69,25 +59,13 @@
   </si>
   <si>
     <t>zomato_geo_1000</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Sum of mse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,346 +117,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Aulia Rahmadi" refreshedDate="44867.627867476855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{2553E7F5-F1AA-4D2F-95AB-E955C0521287}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H13" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="mae" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4520306440899617E-2" maxValue="8.1456073336800508E-2"/>
-    </cacheField>
-    <cacheField name="mse" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.1009445663580817E-3" maxValue="1.0747152285392121E-2"/>
-    </cacheField>
-    <cacheField name="R2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3314415038976928E-2" maxValue="0.87176323861389671"/>
-    </cacheField>
-    <cacheField name="name" numFmtId="0">
-      <sharedItems count="3">
-        <s v="rf"/>
-        <s v="xgb"/>
-        <s v="svr"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="feature_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="21"/>
-    </cacheField>
-    <cacheField name="train_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5106" maxValue="5106"/>
-    </cacheField>
-    <cacheField name="test_size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="697" maxValue="697"/>
-    </cacheField>
-    <cacheField name="dataset" numFmtId="0">
-      <sharedItems count="4">
-        <s v="zomato_only"/>
-        <s v="zomato_geo_250"/>
-        <s v="zomato_geo_500"/>
-        <s v="zomato_geo_1000"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
-  <r>
-    <n v="7.8704112205967902E-2"/>
-    <n v="1.008435469381838E-2"/>
-    <n v="0.69431537908546548"/>
-    <x v="0"/>
-    <n v="4"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="7.611879244509144E-2"/>
-    <n v="9.4739376819904606E-3"/>
-    <n v="0.57854983291410278"/>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="7.8097886668885591E-2"/>
-    <n v="9.7541807784577907E-3"/>
-    <n v="4.3314415038976928E-2"/>
-    <x v="2"/>
-    <n v="4"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="7.761804319475181E-2"/>
-    <n v="9.7563754174382865E-3"/>
-    <n v="0.84203782994538379"/>
-    <x v="0"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="7.5854637725941088E-2"/>
-    <n v="9.5328524208810016E-3"/>
-    <n v="0.70269265582306306"/>
-    <x v="1"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="8.1456073336800508E-2"/>
-    <n v="1.0747152285392121E-2"/>
-    <n v="0.1109032719706685"/>
-    <x v="2"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="7.5443607408120061E-2"/>
-    <n v="9.4220761684037906E-3"/>
-    <n v="0.86997636609079776"/>
-    <x v="0"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="7.4520306440899617E-2"/>
-    <n v="9.1948758075690879E-3"/>
-    <n v="0.8117689078497301"/>
-    <x v="1"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="7.7983670367903116E-2"/>
-    <n v="9.8864099238030485E-3"/>
-    <n v="0.15381914005926159"/>
-    <x v="2"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="7.4633105507011188E-2"/>
-    <n v="9.1009445663580817E-3"/>
-    <n v="0.87176323861389671"/>
-    <x v="0"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="7.5374808138126706E-2"/>
-    <n v="9.396786068065436E-3"/>
-    <n v="0.80782392829359984"/>
-    <x v="1"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="7.6358362208208713E-2"/>
-    <n v="9.37092570489278E-3"/>
-    <n v="0.17517283037509221"/>
-    <x v="2"/>
-    <n v="21"/>
-    <n v="5106"/>
-    <n v="697"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DBBEBCAC-96FD-4260-A5BC-3430220164A6}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of mse" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="7" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="7" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="7" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,27 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,24 +240,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,186 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1668151A-94E6-4C6B-9B37-79720DE97F16}">
-  <dimension ref="A3:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4">
-        <v>9.1009445663580817E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.37092570489278E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9.396786068065436E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.7868656339316299E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>9.7563754174382865E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.0747152285392121E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9.5328524208810016E-3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.0036380123711407E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>9.4220761684037906E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.8864099238030485E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9.1948758075690879E-3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.8503361899775925E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.008435469381838E-2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9.7541807784577907E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>9.4739376819904606E-3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2.9312473154266633E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3.8363750846018542E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3.975866869254574E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3.7598451978505983E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.11572087151707026</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting pivot="1" sqref="B5:B8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:C8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,15 +448,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>7.8704112205967902E-2</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="B2">
-        <v>1.008435469381838E-2</v>
+        <v>0.01008</v>
       </c>
       <c r="C2">
-        <v>0.69431537908546548</v>
+        <v>0.69432</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1032,15 +474,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>7.611879244509144E-2</v>
+        <v>0.07611999999999999</v>
       </c>
       <c r="B3">
-        <v>9.4739376819904606E-3</v>
+        <v>0.009469999999999999</v>
       </c>
       <c r="C3">
-        <v>0.57854983291410278</v>
+        <v>0.57855</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1058,15 +500,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>7.8097886668885591E-2</v>
+        <v>0.0781</v>
       </c>
       <c r="B4">
-        <v>9.7541807784577907E-3</v>
+        <v>0.00975</v>
       </c>
       <c r="C4">
-        <v>4.3314415038976928E-2</v>
+        <v>0.04331</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1084,15 +526,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>7.761804319475181E-2</v>
+        <v>0.07761999999999999</v>
       </c>
       <c r="B5">
-        <v>9.7563754174382865E-3</v>
+        <v>0.00976</v>
       </c>
       <c r="C5">
-        <v>0.84203782994538379</v>
+        <v>0.84204</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1110,15 +552,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>7.5854637725941088E-2</v>
+        <v>0.07585</v>
       </c>
       <c r="B6">
-        <v>9.5328524208810016E-3</v>
+        <v>0.00953</v>
       </c>
       <c r="C6">
-        <v>0.70269265582306306</v>
+        <v>0.70269</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1136,15 +578,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>8.1456073336800508E-2</v>
+        <v>0.08146</v>
       </c>
       <c r="B7">
-        <v>1.0747152285392121E-2</v>
+        <v>0.01075</v>
       </c>
       <c r="C7">
-        <v>0.1109032719706685</v>
+        <v>0.1109</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1162,15 +604,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>7.5443607408120061E-2</v>
+        <v>0.07543999999999999</v>
       </c>
       <c r="B8">
-        <v>9.4220761684037906E-3</v>
+        <v>0.00942</v>
       </c>
       <c r="C8">
-        <v>0.86997636609079776</v>
+        <v>0.86998</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1188,15 +630,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>7.4520306440899617E-2</v>
+        <v>0.07452</v>
       </c>
       <c r="B9">
-        <v>9.1948758075690879E-3</v>
+        <v>0.00919</v>
       </c>
       <c r="C9">
-        <v>0.8117689078497301</v>
+        <v>0.81177</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1214,15 +656,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>7.7983670367903116E-2</v>
+        <v>0.07797999999999999</v>
       </c>
       <c r="B10">
-        <v>9.8864099238030485E-3</v>
+        <v>0.009889999999999999</v>
       </c>
       <c r="C10">
-        <v>0.15381914005926159</v>
+        <v>0.15382</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1240,15 +682,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>7.4633105507011188E-2</v>
+        <v>0.07463</v>
       </c>
       <c r="B11">
-        <v>9.1009445663580817E-3</v>
+        <v>0.0091</v>
       </c>
       <c r="C11">
-        <v>0.87176323861389671</v>
+        <v>0.87176</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1266,15 +708,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>7.5374808138126706E-2</v>
+        <v>0.07537000000000001</v>
       </c>
       <c r="B12">
-        <v>9.396786068065436E-3</v>
+        <v>0.0094</v>
       </c>
       <c r="C12">
-        <v>0.80782392829359984</v>
+        <v>0.80782</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1292,15 +734,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>7.6358362208208713E-2</v>
+        <v>0.07636</v>
       </c>
       <c r="B13">
-        <v>9.37092570489278E-3</v>
+        <v>0.00937</v>
       </c>
       <c r="C13">
-        <v>0.17517283037509221</v>
+        <v>0.17517</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
